--- a/parceiros.xlsx
+++ b/parceiros.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="134">
   <si>
     <t>Nome</t>
   </si>
@@ -123,6 +123,33 @@
     <t>SEVERINO GABRIEL NGOLE</t>
   </si>
   <si>
+    <t>JAIME ANTONIO JAIME</t>
+  </si>
+  <si>
+    <t>JONA MARIO CHIMUAZE</t>
+  </si>
+  <si>
+    <t>JULIASSE SANUEL SABAO</t>
+  </si>
+  <si>
+    <t>MARIA BERNADO</t>
+  </si>
+  <si>
+    <t>MARIA DOMINGOS</t>
+  </si>
+  <si>
+    <t>MARTA MACARREIA</t>
+  </si>
+  <si>
+    <t>RITA MUTONDO</t>
+  </si>
+  <si>
+    <t>ZACARIAS MANUEL JOSE</t>
+  </si>
+  <si>
+    <t>ZITO RESTORANTE AGOSTINHO</t>
+  </si>
+  <si>
     <t>Regiao</t>
   </si>
   <si>
@@ -234,12 +261,87 @@
     <t>GESTOR DE PROGRAMA</t>
   </si>
   <si>
+    <t>TECNICO DO CAMPO</t>
+  </si>
+  <si>
+    <t>TENICO</t>
+  </si>
+  <si>
+    <t>TECNICA</t>
+  </si>
+  <si>
+    <t>SUPERVISO DE POUPANCA</t>
+  </si>
+  <si>
+    <t>TENICA</t>
+  </si>
+  <si>
+    <t>GESTORA</t>
+  </si>
+  <si>
     <t>Contacto</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>848226339</t>
+  </si>
+  <si>
+    <t>845123123</t>
+  </si>
+  <si>
+    <t>845039400</t>
+  </si>
+  <si>
+    <t>847233663</t>
+  </si>
+  <si>
+    <t>876919019</t>
+  </si>
+  <si>
+    <t>862904595</t>
+  </si>
+  <si>
+    <t>869210890</t>
+  </si>
+  <si>
+    <t>869210850</t>
+  </si>
+  <si>
+    <t>863019855</t>
+  </si>
+  <si>
+    <t>864132495</t>
+  </si>
+  <si>
+    <t>849549307</t>
+  </si>
+  <si>
+    <t>845740602</t>
+  </si>
+  <si>
+    <t>843807230</t>
+  </si>
+  <si>
+    <t>843804230</t>
+  </si>
+  <si>
+    <t>847477984</t>
+  </si>
+  <si>
+    <t>863965603</t>
+  </si>
+  <si>
+    <t>855511294</t>
+  </si>
+  <si>
+    <t>875479685</t>
+  </si>
+  <si>
+    <t>875479686</t>
+  </si>
+  <si>
     <t>Data</t>
   </si>
   <si>
@@ -258,6 +360,12 @@
     <t xml:space="preserve"> 11/9/2022</t>
   </si>
   <si>
+    <t>10/21/2022</t>
+  </si>
+  <si>
+    <t>10/22/2022</t>
+  </si>
+  <si>
     <t>nrworkshoop</t>
   </si>
   <si>
@@ -265,6 +373,48 @@
   </si>
   <si>
     <t>apresentacao_photovoice</t>
+  </si>
+  <si>
+    <t>Contacto2</t>
+  </si>
+  <si>
+    <t>861589157</t>
+  </si>
+  <si>
+    <t>863033655</t>
+  </si>
+  <si>
+    <t>841589157</t>
+  </si>
+  <si>
+    <t>861651638</t>
+  </si>
+  <si>
+    <t>853468553</t>
+  </si>
+  <si>
+    <t>846243460</t>
+  </si>
+  <si>
+    <t>84038571</t>
+  </si>
+  <si>
+    <t>879549307</t>
+  </si>
+  <si>
+    <t>87941081811</t>
+  </si>
+  <si>
+    <t>873804230</t>
+  </si>
+  <si>
+    <t>870134903</t>
+  </si>
+  <si>
+    <t>842746050</t>
+  </si>
+  <si>
+    <t>875448939</t>
   </si>
 </sst>
 </file>
@@ -308,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:K90"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -316,31 +466,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="G1" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="H1" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="I1" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="J1" t="s">
-        <v>83</v>
+        <v>119</v>
+      </c>
+      <c r="K1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="2">
@@ -348,31 +501,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="H2" s="0">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J2" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3">
@@ -380,31 +536,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H3" s="0">
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J3" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4">
@@ -412,31 +571,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="H4" s="0">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J4" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="5">
@@ -444,31 +606,34 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G5" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H5" s="0">
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6">
@@ -476,31 +641,34 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="H6" s="0">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="7">
@@ -508,31 +676,34 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H7" s="0">
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="8">
@@ -540,31 +711,34 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="H8" s="0">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="9">
@@ -572,31 +746,34 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G9" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H9" s="0">
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J9" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K9" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="10">
@@ -604,31 +781,34 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="H10" s="0">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J10" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11">
@@ -636,31 +816,34 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H11" s="0">
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J11" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K11" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="12">
@@ -668,31 +851,34 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="H12" s="0">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K12" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="13">
@@ -700,31 +886,34 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G13" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H13" s="0">
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K13" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="14">
@@ -732,31 +921,34 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="H14" s="0">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J14" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K14" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="15">
@@ -764,31 +956,34 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H15" s="0">
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K15" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="16">
@@ -796,31 +991,34 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H16" s="0">
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K16" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="17">
@@ -828,31 +1026,34 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F17" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="H17" s="0">
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J17" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K17" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="18">
@@ -860,31 +1061,34 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G18" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H18" s="0">
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J18" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K18" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="19">
@@ -892,31 +1096,34 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="H19" s="0">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J19" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K19" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="20">
@@ -924,31 +1131,34 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F20" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="H20" s="0">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J20" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K20" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="21">
@@ -956,31 +1166,34 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G21" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H21" s="0">
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J21" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K21" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="22">
@@ -988,31 +1201,34 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="H22" s="0">
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J22" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K22" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="23">
@@ -1020,31 +1236,34 @@
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F23" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G23" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H23" s="0">
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J23" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K23" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="24">
@@ -1052,31 +1271,34 @@
         <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F24" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G24" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="H24" s="0">
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J24" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K24" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="25">
@@ -1084,31 +1306,34 @@
         <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F25" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G25" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="H25" s="0">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J25" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K25" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="26">
@@ -1116,31 +1341,34 @@
         <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F26" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G26" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="H26" s="0">
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J26" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K26" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="27">
@@ -1148,31 +1376,34 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F27" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G27" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="H27" s="0">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J27" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K27" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="28">
@@ -1180,31 +1411,34 @@
         <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F28" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G28" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="H28" s="0">
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J28" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K28" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="29">
@@ -1212,31 +1446,34 @@
         <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F29" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G29" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="H29" s="0">
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J29" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K29" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="30">
@@ -1244,31 +1481,34 @@
         <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E30" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F30" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G30" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="H30" s="0">
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J30" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K30" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="31">
@@ -1276,31 +1516,34 @@
         <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E31" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F31" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G31" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="H31" s="0">
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J31" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K31" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="32">
@@ -1308,31 +1551,34 @@
         <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F32" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G32" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="H32" s="0">
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J32" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K32" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="33">
@@ -1340,31 +1586,34 @@
         <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E33" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F33" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G33" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="H33" s="0">
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J33" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K33" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="34">
@@ -1372,31 +1621,34 @@
         <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E34" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F34" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G34" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="H34" s="0">
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J34" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K34" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="35">
@@ -1404,31 +1656,34 @@
         <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E35" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F35" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G35" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="H35" s="0">
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J35" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K35" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="36">
@@ -1436,31 +1691,34 @@
         <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D36" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E36" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G36" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="H36" s="0">
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J36" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K36" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="37">
@@ -1468,31 +1726,34 @@
         <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E37" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G37" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="H37" s="0">
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J37" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K37" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="38">
@@ -1500,31 +1761,34 @@
         <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E38" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G38" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="H38" s="0">
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J38" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K38" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="39">
@@ -1532,31 +1796,34 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D39" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E39" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F39" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G39" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="H39" s="0">
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J39" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K39" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="40">
@@ -1564,31 +1831,34 @@
         <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D40" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E40" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F40" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G40" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="H40" s="0">
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J40" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K40" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="41">
@@ -1596,31 +1866,34 @@
         <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E41" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F41" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G41" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="H41" s="0">
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J41" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K41" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="42">
@@ -1628,31 +1901,34 @@
         <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D42" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E42" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G42" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="H42" s="0">
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J42" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K42" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="43">
@@ -1660,31 +1936,34 @@
         <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D43" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E43" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F43" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G43" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="H43" s="0">
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J43" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K43" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="44">
@@ -1692,31 +1971,34 @@
         <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D44" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E44" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F44" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G44" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="H44" s="0">
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J44" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K44" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="45">
@@ -1724,31 +2006,34 @@
         <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D45" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E45" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F45" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G45" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="H45" s="0">
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J45" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K45" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="46">
@@ -1756,31 +2041,34 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D46" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E46" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F46" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G46" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="H46" s="0">
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J46" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K46" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="47">
@@ -1788,31 +2076,34 @@
         <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D47" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E47" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F47" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G47" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="H47" s="0">
         <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J47" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K47" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="48">
@@ -1820,31 +2111,34 @@
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D48" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E48" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F48" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G48" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="H48" s="0">
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J48" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K48" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="49">
@@ -1852,31 +2146,34 @@
         <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D49" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E49" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F49" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G49" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="H49" s="0">
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J49" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K49" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="50">
@@ -1884,31 +2181,34 @@
         <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C50" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D50" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E50" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F50" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G50" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="H50" s="0">
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J50" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K50" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="51">
@@ -1916,31 +2216,34 @@
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D51" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E51" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F51" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G51" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="H51" s="0">
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J51" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K51" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="52">
@@ -1948,31 +2251,34 @@
         <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C52" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D52" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E52" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F52" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G52" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="H52" s="0">
         <v>2</v>
       </c>
       <c r="I52" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J52" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K52" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="53">
@@ -1980,31 +2286,34 @@
         <v>24</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C53" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D53" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E53" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F53" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G53" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="H53" s="0">
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J53" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K53" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="54">
@@ -2012,31 +2321,34 @@
         <v>26</v>
       </c>
       <c r="B54" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C54" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D54" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E54" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F54" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G54" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="H54" s="0">
         <v>2</v>
       </c>
       <c r="I54" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J54" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K54" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="55">
@@ -2044,31 +2356,34 @@
         <v>27</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C55" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D55" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E55" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F55" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G55" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="H55" s="0">
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J55" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K55" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="56">
@@ -2076,31 +2391,34 @@
         <v>28</v>
       </c>
       <c r="B56" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C56" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D56" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E56" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F56" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G56" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="H56" s="0">
         <v>2</v>
       </c>
       <c r="I56" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J56" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K56" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="57">
@@ -2108,31 +2426,34 @@
         <v>29</v>
       </c>
       <c r="B57" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C57" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D57" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E57" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F57" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G57" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="H57" s="0">
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J57" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K57" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="58">
@@ -2140,31 +2461,34 @@
         <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C58" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D58" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E58" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F58" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G58" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="H58" s="0">
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J58" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K58" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="59">
@@ -2172,31 +2496,34 @@
         <v>31</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C59" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D59" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E59" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F59" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G59" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="H59" s="0">
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J59" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K59" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="60">
@@ -2204,31 +2531,34 @@
         <v>32</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C60" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D60" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F60" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G60" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="H60" s="0">
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J60" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K60" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="61">
@@ -2236,31 +2566,34 @@
         <v>33</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C61" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D61" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E61" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F61" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G61" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="H61" s="0">
         <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J61" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K61" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="62">
@@ -2268,31 +2601,34 @@
         <v>34</v>
       </c>
       <c r="B62" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C62" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D62" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E62" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F62" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G62" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="H62" s="0">
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J62" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K62" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="63">
@@ -2300,31 +2636,979 @@
         <v>35</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C63" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D63" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E63" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F63" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G63" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="H63" s="0">
         <v>2</v>
       </c>
       <c r="I63" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J63" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="K63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64" t="s">
+        <v>47</v>
+      </c>
+      <c r="E64" t="s">
+        <v>82</v>
+      </c>
+      <c r="F64" t="s">
+        <v>90</v>
+      </c>
+      <c r="G64" t="s">
+        <v>115</v>
+      </c>
+      <c r="H64" s="0">
+        <v>3</v>
+      </c>
+      <c r="I64" t="s">
+        <v>89</v>
+      </c>
+      <c r="J64" t="s">
+        <v>89</v>
+      </c>
+      <c r="K64" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65" t="s">
+        <v>47</v>
+      </c>
+      <c r="E65" t="s">
+        <v>62</v>
+      </c>
+      <c r="F65" t="s">
+        <v>91</v>
+      </c>
+      <c r="G65" t="s">
+        <v>116</v>
+      </c>
+      <c r="H65" s="0">
+        <v>4</v>
+      </c>
+      <c r="I65" t="s">
+        <v>89</v>
+      </c>
+      <c r="J65" t="s">
+        <v>89</v>
+      </c>
+      <c r="K65" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66" t="s">
+        <v>50</v>
+      </c>
+      <c r="D66" t="s">
+        <v>47</v>
+      </c>
+      <c r="E66" t="s">
+        <v>82</v>
+      </c>
+      <c r="F66" t="s">
+        <v>90</v>
+      </c>
+      <c r="G66" t="s">
+        <v>115</v>
+      </c>
+      <c r="H66" s="0">
+        <v>3</v>
+      </c>
+      <c r="I66" t="s">
+        <v>89</v>
+      </c>
+      <c r="J66" t="s">
+        <v>89</v>
+      </c>
+      <c r="K66" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67" t="s">
+        <v>50</v>
+      </c>
+      <c r="D67" t="s">
+        <v>47</v>
+      </c>
+      <c r="E67" t="s">
+        <v>83</v>
+      </c>
+      <c r="F67" t="s">
+        <v>90</v>
+      </c>
+      <c r="G67" t="s">
+        <v>116</v>
+      </c>
+      <c r="H67" s="0">
+        <v>4</v>
+      </c>
+      <c r="I67" t="s">
+        <v>89</v>
+      </c>
+      <c r="J67" t="s">
+        <v>89</v>
+      </c>
+      <c r="K67" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" t="s">
+        <v>47</v>
+      </c>
+      <c r="E68" t="s">
+        <v>62</v>
+      </c>
+      <c r="F68" t="s">
+        <v>92</v>
+      </c>
+      <c r="G68" t="s">
+        <v>115</v>
+      </c>
+      <c r="H68" s="0">
+        <v>3</v>
+      </c>
+      <c r="I68" t="s">
+        <v>89</v>
+      </c>
+      <c r="J68" t="s">
+        <v>89</v>
+      </c>
+      <c r="K68" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69" t="s">
+        <v>50</v>
+      </c>
+      <c r="D69" t="s">
+        <v>47</v>
+      </c>
+      <c r="E69" t="s">
+        <v>62</v>
+      </c>
+      <c r="F69" t="s">
+        <v>92</v>
+      </c>
+      <c r="G69" t="s">
+        <v>116</v>
+      </c>
+      <c r="H69" s="0">
+        <v>4</v>
+      </c>
+      <c r="I69" t="s">
+        <v>89</v>
+      </c>
+      <c r="J69" t="s">
+        <v>89</v>
+      </c>
+      <c r="K69" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" t="s">
+        <v>50</v>
+      </c>
+      <c r="D70" t="s">
+        <v>47</v>
+      </c>
+      <c r="E70" t="s">
+        <v>62</v>
+      </c>
+      <c r="F70" t="s">
+        <v>93</v>
+      </c>
+      <c r="G70" t="s">
+        <v>115</v>
+      </c>
+      <c r="H70" s="0">
+        <v>3</v>
+      </c>
+      <c r="I70" t="s">
+        <v>89</v>
+      </c>
+      <c r="J70" t="s">
+        <v>89</v>
+      </c>
+      <c r="K70" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71" t="s">
+        <v>47</v>
+      </c>
+      <c r="E71" t="s">
+        <v>83</v>
+      </c>
+      <c r="F71" t="s">
+        <v>93</v>
+      </c>
+      <c r="G71" t="s">
+        <v>116</v>
+      </c>
+      <c r="H71" s="0">
+        <v>4</v>
+      </c>
+      <c r="I71" t="s">
+        <v>89</v>
+      </c>
+      <c r="J71" t="s">
+        <v>89</v>
+      </c>
+      <c r="K71" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72" t="s">
+        <v>47</v>
+      </c>
+      <c r="C72" t="s">
+        <v>50</v>
+      </c>
+      <c r="D72" t="s">
+        <v>47</v>
+      </c>
+      <c r="E72" t="s">
+        <v>83</v>
+      </c>
+      <c r="F72" t="s">
+        <v>94</v>
+      </c>
+      <c r="G72" t="s">
+        <v>116</v>
+      </c>
+      <c r="H72" s="0">
+        <v>4</v>
+      </c>
+      <c r="I72" t="s">
+        <v>89</v>
+      </c>
+      <c r="J72" t="s">
+        <v>89</v>
+      </c>
+      <c r="K72" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>37</v>
+      </c>
+      <c r="B73" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73" t="s">
+        <v>50</v>
+      </c>
+      <c r="D73" t="s">
+        <v>47</v>
+      </c>
+      <c r="E73" t="s">
+        <v>62</v>
+      </c>
+      <c r="F73" t="s">
+        <v>95</v>
+      </c>
+      <c r="G73" t="s">
+        <v>115</v>
+      </c>
+      <c r="H73" s="0">
+        <v>3</v>
+      </c>
+      <c r="I73" t="s">
+        <v>89</v>
+      </c>
+      <c r="J73" t="s">
+        <v>89</v>
+      </c>
+      <c r="K73" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74" t="s">
+        <v>47</v>
+      </c>
+      <c r="C74" t="s">
+        <v>50</v>
+      </c>
+      <c r="D74" t="s">
+        <v>47</v>
+      </c>
+      <c r="E74" t="s">
+        <v>82</v>
+      </c>
+      <c r="F74" t="s">
+        <v>96</v>
+      </c>
+      <c r="G74" t="s">
+        <v>115</v>
+      </c>
+      <c r="H74" s="0">
+        <v>3</v>
+      </c>
+      <c r="I74" t="s">
+        <v>89</v>
+      </c>
+      <c r="J74" t="s">
+        <v>89</v>
+      </c>
+      <c r="K74" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75" t="s">
+        <v>47</v>
+      </c>
+      <c r="C75" t="s">
+        <v>50</v>
+      </c>
+      <c r="D75" t="s">
+        <v>47</v>
+      </c>
+      <c r="E75" t="s">
+        <v>62</v>
+      </c>
+      <c r="F75" t="s">
+        <v>97</v>
+      </c>
+      <c r="G75" t="s">
+        <v>116</v>
+      </c>
+      <c r="H75" s="0">
+        <v>4</v>
+      </c>
+      <c r="I75" t="s">
+        <v>89</v>
+      </c>
+      <c r="J75" t="s">
+        <v>89</v>
+      </c>
+      <c r="K75" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" t="s">
+        <v>47</v>
+      </c>
+      <c r="C76" t="s">
+        <v>49</v>
+      </c>
+      <c r="D76" t="s">
+        <v>47</v>
+      </c>
+      <c r="E76" t="s">
+        <v>84</v>
+      </c>
+      <c r="F76" t="s">
+        <v>98</v>
+      </c>
+      <c r="G76" t="s">
+        <v>115</v>
+      </c>
+      <c r="H76" s="0">
+        <v>3</v>
+      </c>
+      <c r="I76" t="s">
+        <v>89</v>
+      </c>
+      <c r="J76" t="s">
+        <v>89</v>
+      </c>
+      <c r="K76" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" t="s">
+        <v>47</v>
+      </c>
+      <c r="C77" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77" t="s">
+        <v>47</v>
+      </c>
+      <c r="E77" t="s">
+        <v>84</v>
+      </c>
+      <c r="F77" t="s">
+        <v>98</v>
+      </c>
+      <c r="G77" t="s">
+        <v>116</v>
+      </c>
+      <c r="H77" s="0">
+        <v>4</v>
+      </c>
+      <c r="I77" t="s">
+        <v>89</v>
+      </c>
+      <c r="J77" t="s">
+        <v>89</v>
+      </c>
+      <c r="K77" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>38</v>
+      </c>
+      <c r="B78" t="s">
+        <v>47</v>
+      </c>
+      <c r="C78" t="s">
+        <v>50</v>
+      </c>
+      <c r="D78" t="s">
+        <v>47</v>
+      </c>
+      <c r="E78" t="s">
+        <v>62</v>
+      </c>
+      <c r="F78" t="s">
+        <v>99</v>
+      </c>
+      <c r="G78" t="s">
+        <v>115</v>
+      </c>
+      <c r="H78" s="0">
+        <v>3</v>
+      </c>
+      <c r="I78" t="s">
+        <v>89</v>
+      </c>
+      <c r="J78" t="s">
+        <v>89</v>
+      </c>
+      <c r="K78" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79" t="s">
+        <v>47</v>
+      </c>
+      <c r="C79" t="s">
+        <v>50</v>
+      </c>
+      <c r="D79" t="s">
+        <v>47</v>
+      </c>
+      <c r="E79" t="s">
+        <v>62</v>
+      </c>
+      <c r="F79" t="s">
+        <v>99</v>
+      </c>
+      <c r="G79" t="s">
+        <v>115</v>
+      </c>
+      <c r="H79" s="0">
+        <v>4</v>
+      </c>
+      <c r="I79" t="s">
+        <v>89</v>
+      </c>
+      <c r="J79" t="s">
+        <v>89</v>
+      </c>
+      <c r="K79" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80" t="s">
+        <v>47</v>
+      </c>
+      <c r="C80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80" t="s">
+        <v>47</v>
+      </c>
+      <c r="E80" t="s">
+        <v>85</v>
+      </c>
+      <c r="F80" t="s">
+        <v>100</v>
+      </c>
+      <c r="G80" t="s">
+        <v>116</v>
+      </c>
+      <c r="H80" s="0">
+        <v>4</v>
+      </c>
+      <c r="I80" t="s">
+        <v>89</v>
+      </c>
+      <c r="J80" t="s">
+        <v>89</v>
+      </c>
+      <c r="K80" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>40</v>
+      </c>
+      <c r="B81" t="s">
+        <v>47</v>
+      </c>
+      <c r="C81" t="s">
+        <v>49</v>
+      </c>
+      <c r="D81" t="s">
+        <v>47</v>
+      </c>
+      <c r="E81" t="s">
+        <v>72</v>
+      </c>
+      <c r="F81" t="s">
+        <v>100</v>
+      </c>
+      <c r="G81" t="s">
+        <v>116</v>
+      </c>
+      <c r="H81" s="0">
+        <v>4</v>
+      </c>
+      <c r="I81" t="s">
+        <v>89</v>
+      </c>
+      <c r="J81" t="s">
+        <v>89</v>
+      </c>
+      <c r="K81" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>40</v>
+      </c>
+      <c r="B82" t="s">
+        <v>47</v>
+      </c>
+      <c r="C82" t="s">
+        <v>49</v>
+      </c>
+      <c r="D82" t="s">
+        <v>47</v>
+      </c>
+      <c r="E82" t="s">
+        <v>72</v>
+      </c>
+      <c r="F82" t="s">
+        <v>100</v>
+      </c>
+      <c r="G82" t="s">
+        <v>115</v>
+      </c>
+      <c r="H82" s="0">
+        <v>3</v>
+      </c>
+      <c r="I82" t="s">
+        <v>89</v>
+      </c>
+      <c r="J82" t="s">
+        <v>89</v>
+      </c>
+      <c r="K82" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>41</v>
+      </c>
+      <c r="B83" t="s">
+        <v>47</v>
+      </c>
+      <c r="C83" t="s">
+        <v>49</v>
+      </c>
+      <c r="D83" t="s">
+        <v>47</v>
+      </c>
+      <c r="E83" t="s">
+        <v>86</v>
+      </c>
+      <c r="F83" t="s">
+        <v>101</v>
+      </c>
+      <c r="G83" t="s">
+        <v>116</v>
+      </c>
+      <c r="H83" s="0">
+        <v>4</v>
+      </c>
+      <c r="I83" t="s">
+        <v>89</v>
+      </c>
+      <c r="J83" t="s">
+        <v>89</v>
+      </c>
+      <c r="K83" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>42</v>
+      </c>
+      <c r="B84" t="s">
+        <v>47</v>
+      </c>
+      <c r="C84" t="s">
+        <v>49</v>
+      </c>
+      <c r="D84" t="s">
+        <v>47</v>
+      </c>
+      <c r="E84" t="s">
+        <v>87</v>
+      </c>
+      <c r="F84" t="s">
+        <v>102</v>
+      </c>
+      <c r="G84" t="s">
+        <v>115</v>
+      </c>
+      <c r="H84" s="0">
+        <v>3</v>
+      </c>
+      <c r="I84" t="s">
+        <v>89</v>
+      </c>
+      <c r="J84" t="s">
+        <v>89</v>
+      </c>
+      <c r="K84" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>42</v>
+      </c>
+      <c r="B85" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" t="s">
+        <v>49</v>
+      </c>
+      <c r="D85" t="s">
+        <v>47</v>
+      </c>
+      <c r="E85" t="s">
+        <v>87</v>
+      </c>
+      <c r="F85" t="s">
+        <v>103</v>
+      </c>
+      <c r="G85" t="s">
+        <v>116</v>
+      </c>
+      <c r="H85" s="0">
+        <v>4</v>
+      </c>
+      <c r="I85" t="s">
+        <v>89</v>
+      </c>
+      <c r="J85" t="s">
+        <v>89</v>
+      </c>
+      <c r="K85" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>21</v>
+      </c>
+      <c r="B86" t="s">
+        <v>47</v>
+      </c>
+      <c r="C86" t="s">
+        <v>49</v>
+      </c>
+      <c r="D86" t="s">
+        <v>47</v>
+      </c>
+      <c r="E86" t="s">
+        <v>84</v>
+      </c>
+      <c r="F86" t="s">
+        <v>104</v>
+      </c>
+      <c r="G86" t="s">
+        <v>115</v>
+      </c>
+      <c r="H86" s="0">
+        <v>3</v>
+      </c>
+      <c r="I86" t="s">
+        <v>89</v>
+      </c>
+      <c r="J86" t="s">
+        <v>89</v>
+      </c>
+      <c r="K86" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>24</v>
+      </c>
+      <c r="B87" t="s">
+        <v>47</v>
+      </c>
+      <c r="C87" t="s">
+        <v>49</v>
+      </c>
+      <c r="D87" t="s">
+        <v>47</v>
+      </c>
+      <c r="E87" t="s">
+        <v>84</v>
+      </c>
+      <c r="F87" t="s">
+        <v>105</v>
+      </c>
+      <c r="G87" t="s">
+        <v>116</v>
+      </c>
+      <c r="H87" s="0">
+        <v>4</v>
+      </c>
+      <c r="I87" t="s">
+        <v>89</v>
+      </c>
+      <c r="J87" t="s">
+        <v>89</v>
+      </c>
+      <c r="K87" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>43</v>
+      </c>
+      <c r="B88" t="s">
+        <v>47</v>
+      </c>
+      <c r="C88" t="s">
+        <v>50</v>
+      </c>
+      <c r="D88" t="s">
+        <v>47</v>
+      </c>
+      <c r="E88" t="s">
+        <v>83</v>
+      </c>
+      <c r="F88" t="s">
+        <v>106</v>
+      </c>
+      <c r="G88" t="s">
+        <v>116</v>
+      </c>
+      <c r="H88" s="0">
+        <v>4</v>
+      </c>
+      <c r="I88" t="s">
+        <v>89</v>
+      </c>
+      <c r="J88" t="s">
+        <v>89</v>
+      </c>
+      <c r="K88" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>44</v>
+      </c>
+      <c r="B89" t="s">
+        <v>47</v>
+      </c>
+      <c r="C89" t="s">
+        <v>50</v>
+      </c>
+      <c r="D89" t="s">
+        <v>47</v>
+      </c>
+      <c r="E89" t="s">
+        <v>62</v>
+      </c>
+      <c r="F89" t="s">
+        <v>107</v>
+      </c>
+      <c r="G89" t="s">
+        <v>116</v>
+      </c>
+      <c r="H89" s="0">
+        <v>4</v>
+      </c>
+      <c r="I89" t="s">
+        <v>89</v>
+      </c>
+      <c r="J89" t="s">
+        <v>89</v>
+      </c>
+      <c r="K89" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>44</v>
+      </c>
+      <c r="B90" t="s">
+        <v>47</v>
+      </c>
+      <c r="C90" t="s">
+        <v>50</v>
+      </c>
+      <c r="D90" t="s">
+        <v>47</v>
+      </c>
+      <c r="E90" t="s">
+        <v>62</v>
+      </c>
+      <c r="F90" t="s">
+        <v>108</v>
+      </c>
+      <c r="G90" t="s">
+        <v>115</v>
+      </c>
+      <c r="H90" s="0">
+        <v>3</v>
+      </c>
+      <c r="I90" t="s">
+        <v>89</v>
+      </c>
+      <c r="J90" t="s">
+        <v>89</v>
+      </c>
+      <c r="K90" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/parceiros.xlsx
+++ b/parceiros.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="137">
   <si>
     <t>Nome</t>
   </si>
@@ -54,6 +54,9 @@
     <t>TEODORO BOMBA</t>
   </si>
   <si>
+    <t>TEMOTEO SERIANO</t>
+  </si>
+  <si>
     <t>GRACIEL JAFAR</t>
   </si>
   <si>
@@ -222,6 +225,9 @@
     <t>PESQUISA E DESENVOLVIMENTO PFNM</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>TECNICO DE APICULTURA</t>
   </si>
   <si>
@@ -282,9 +288,6 @@
     <t>Contacto</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>848226339</t>
   </si>
   <si>
@@ -349,6 +352,12 @@
   </si>
   <si>
     <t xml:space="preserve"> 8/11/2022</t>
+  </si>
+  <si>
+    <t>10/18/2022</t>
+  </si>
+  <si>
+    <t>10/20/2022</t>
   </si>
   <si>
     <t xml:space="preserve">  9/8/2022</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K90"/>
+  <dimension ref="A1:K108"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -466,34 +475,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2">
@@ -501,34 +510,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H2" s="0">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -536,34 +545,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H3" s="0">
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J3" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K3" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
@@ -571,34 +580,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H4" s="0">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -606,34 +615,34 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H5" s="0">
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -641,34 +650,34 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H6" s="0">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J6" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -676,34 +685,34 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H7" s="0">
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -711,34 +720,34 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H8" s="0">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -746,34 +755,34 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H9" s="0">
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J9" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K9" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -781,34 +790,34 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H10" s="0">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J10" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K10" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -816,34 +825,34 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H11" s="0">
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J11" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K11" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
@@ -851,34 +860,34 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H12" s="0">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J12" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K12" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
@@ -886,34 +895,34 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F13" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H13" s="0">
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J13" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K13" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -921,34 +930,34 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H14" s="0">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J14" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K14" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
@@ -956,34 +965,34 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H15" s="0">
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J15" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K15" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
@@ -991,34 +1000,34 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H16" s="0">
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J16" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K16" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
@@ -1026,34 +1035,34 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F17" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H17" s="0">
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J17" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K17" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18">
@@ -1061,34 +1070,34 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F18" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H18" s="0">
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J18" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K18" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
@@ -1096,34 +1105,34 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F19" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H19" s="0">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J19" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K19" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20">
@@ -1131,34 +1140,34 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F20" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H20" s="0">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J20" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K20" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
@@ -1166,34 +1175,34 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F21" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H21" s="0">
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J21" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K21" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22">
@@ -1201,34 +1210,34 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F22" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H22" s="0">
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J22" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K22" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
@@ -1236,39 +1245,39 @@
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F23" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H23" s="0">
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J23" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K23" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
@@ -1277,313 +1286,313 @@
         <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F24" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H24" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I24" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J24" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K24" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F25" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G25" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H25" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I25" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J25" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K25" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B26" t="s">
         <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F26" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H26" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J26" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K26" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B27" t="s">
         <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F27" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G27" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H27" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I27" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J27" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K27" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
         <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F28" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H28" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J28" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K28" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
         <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F29" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G29" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H29" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J29" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K29" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
         <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F30" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H30" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J30" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K30" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
         <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E31" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F31" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G31" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H31" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I31" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J31" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K31" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
         <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E32" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F32" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H32" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I32" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J32" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K32" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
         <v>47</v>
@@ -1592,728 +1601,728 @@
         <v>50</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F33" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G33" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H33" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I33" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J33" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K33" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
         <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E34" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F34" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H34" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J34" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K34" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
         <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E35" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G35" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H35" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I35" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J35" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K35" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
         <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D36" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F36" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H36" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I36" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J36" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K36" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
         <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D37" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F37" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G37" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H37" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I37" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J37" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K37" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
         <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D38" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F38" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G38" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H38" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J38" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K38" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
         <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D39" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E39" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F39" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G39" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H39" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I39" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J39" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K39" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B40" t="s">
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D40" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E40" t="s">
         <v>70</v>
       </c>
       <c r="F40" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G40" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H40" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J40" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K40" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B41" t="s">
         <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D41" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E41" t="s">
         <v>70</v>
       </c>
       <c r="F41" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G41" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H41" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I41" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J41" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K41" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E42" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F42" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G42" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H42" s="0">
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J42" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K42" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E43" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F43" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G43" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H43" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J43" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K43" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E44" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F44" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G44" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H44" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J44" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K44" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E45" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F45" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G45" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H45" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J45" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K45" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
         <v>50</v>
       </c>
       <c r="D46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E46" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F46" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G46" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H46" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J46" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K46" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E47" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F47" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G47" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H47" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J47" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K47" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E48" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F48" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G48" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H48" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J48" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K48" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E49" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F49" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G49" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H49" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J49" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K49" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E50" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F50" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G50" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H50" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J50" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K50" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C51" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E51" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F51" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G51" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H51" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J51" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K51" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E52" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F52" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G52" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H52" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J52" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K52" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E53" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F53" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G53" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H53" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J53" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K53" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54">
@@ -2321,34 +2330,34 @@
         <v>26</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C54" t="s">
         <v>50</v>
       </c>
       <c r="D54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E54" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F54" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G54" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H54" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J54" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K54" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55">
@@ -2356,34 +2365,34 @@
         <v>27</v>
       </c>
       <c r="B55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E55" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F55" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G55" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H55" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J55" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K55" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56">
@@ -2391,34 +2400,34 @@
         <v>28</v>
       </c>
       <c r="B56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E56" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F56" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G56" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H56" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J56" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K56" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57">
@@ -2426,34 +2435,34 @@
         <v>29</v>
       </c>
       <c r="B57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E57" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F57" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G57" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H57" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J57" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K57" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58">
@@ -2461,34 +2470,34 @@
         <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E58" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F58" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G58" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H58" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J58" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K58" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59">
@@ -2496,34 +2505,34 @@
         <v>31</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C59" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E59" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F59" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G59" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H59" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J59" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K59" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60">
@@ -2531,34 +2540,34 @@
         <v>32</v>
       </c>
       <c r="B60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E60" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F60" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G60" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H60" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J60" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K60" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61">
@@ -2566,34 +2575,34 @@
         <v>33</v>
       </c>
       <c r="B61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C61" t="s">
         <v>50</v>
       </c>
       <c r="D61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F61" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G61" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H61" s="0">
         <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J61" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K61" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62">
@@ -2601,34 +2610,34 @@
         <v>34</v>
       </c>
       <c r="B62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C62" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E62" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F62" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G62" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H62" s="0">
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J62" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K62" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63">
@@ -2636,979 +2645,1609 @@
         <v>35</v>
       </c>
       <c r="B63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C63" t="s">
         <v>50</v>
       </c>
       <c r="D63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E63" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F63" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G63" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H63" s="0">
         <v>2</v>
       </c>
       <c r="I63" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J63" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K63" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C64" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D64" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E64" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F64" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G64" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H64" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J64" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K64" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C65" t="s">
         <v>50</v>
       </c>
       <c r="D65" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E65" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F65" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="G65" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H65" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J65" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K65" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C66" t="s">
         <v>50</v>
       </c>
       <c r="D66" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E66" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F66" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G66" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H66" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J66" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K66" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C67" t="s">
         <v>50</v>
       </c>
       <c r="D67" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E67" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F67" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G67" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H67" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J67" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K67" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C68" t="s">
         <v>50</v>
       </c>
       <c r="D68" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E68" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="F68" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="G68" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H68" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J68" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K68" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C69" t="s">
         <v>50</v>
       </c>
       <c r="D69" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E69" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F69" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="G69" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H69" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J69" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K69" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C70" t="s">
         <v>50</v>
       </c>
       <c r="D70" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E70" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F70" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="G70" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H70" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J70" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K70" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C71" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D71" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E71" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F71" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="G71" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H71" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J71" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K71" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C72" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D72" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E72" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F72" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="G72" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H72" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J72" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K72" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C73" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D73" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E73" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="G73" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H73" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J73" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K73" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C74" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D74" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E74" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F74" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="G74" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H74" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J74" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K74" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C75" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D75" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E75" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F75" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="G75" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H75" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J75" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K75" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C76" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D76" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E76" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F76" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="G76" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H76" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J76" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K76" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D77" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E77" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F77" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="G77" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H77" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I77" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J77" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K77" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C78" t="s">
         <v>50</v>
       </c>
       <c r="D78" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E78" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="F78" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="G78" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H78" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J78" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K78" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C79" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D79" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E79" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F79" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="G79" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H79" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I79" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J79" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K79" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C80" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D80" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E80" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F80" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G80" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H80" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J80" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K80" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C81" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D81" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E81" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F81" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G81" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H81" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J81" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K81" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C82" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E82" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F82" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G82" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H82" s="0">
         <v>3</v>
       </c>
       <c r="I82" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J82" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K82" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C83" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E83" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F83" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G83" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H83" s="0">
         <v>4</v>
       </c>
       <c r="I83" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J83" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K83" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C84" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E84" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F84" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="G84" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H84" s="0">
         <v>3</v>
       </c>
       <c r="I84" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J84" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K84" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C85" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E85" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F85" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="G85" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H85" s="0">
         <v>4</v>
       </c>
       <c r="I85" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J85" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K85" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C86" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E86" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="F86" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="G86" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H86" s="0">
         <v>3</v>
       </c>
       <c r="I86" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J86" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K86" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C87" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E87" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="F87" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G87" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H87" s="0">
         <v>4</v>
       </c>
       <c r="I87" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J87" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K87" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C88" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E88" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="F88" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="G88" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H88" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J88" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K88" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C89" t="s">
         <v>50</v>
       </c>
       <c r="D89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E89" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F89" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="G89" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H89" s="0">
         <v>4</v>
       </c>
       <c r="I89" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J89" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K89" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>37</v>
+      </c>
+      <c r="B90" t="s">
+        <v>48</v>
+      </c>
+      <c r="C90" t="s">
+        <v>51</v>
+      </c>
+      <c r="D90" t="s">
+        <v>48</v>
+      </c>
+      <c r="E90" t="s">
+        <v>85</v>
+      </c>
+      <c r="F90" t="s">
+        <v>95</v>
+      </c>
+      <c r="G90" t="s">
+        <v>119</v>
+      </c>
+      <c r="H90" s="0">
+        <v>4</v>
+      </c>
+      <c r="I90" t="s">
+        <v>70</v>
+      </c>
+      <c r="J90" t="s">
+        <v>70</v>
+      </c>
+      <c r="K90" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>38</v>
+      </c>
+      <c r="B91" t="s">
+        <v>48</v>
+      </c>
+      <c r="C91" t="s">
+        <v>51</v>
+      </c>
+      <c r="D91" t="s">
+        <v>48</v>
+      </c>
+      <c r="E91" t="s">
+        <v>63</v>
+      </c>
+      <c r="F91" t="s">
+        <v>96</v>
+      </c>
+      <c r="G91" t="s">
+        <v>118</v>
+      </c>
+      <c r="H91" s="0">
+        <v>3</v>
+      </c>
+      <c r="I91" t="s">
+        <v>70</v>
+      </c>
+      <c r="J91" t="s">
+        <v>70</v>
+      </c>
+      <c r="K91" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>27</v>
+      </c>
+      <c r="B92" t="s">
+        <v>48</v>
+      </c>
+      <c r="C92" t="s">
+        <v>51</v>
+      </c>
+      <c r="D92" t="s">
+        <v>48</v>
+      </c>
+      <c r="E92" t="s">
+        <v>84</v>
+      </c>
+      <c r="F92" t="s">
+        <v>97</v>
+      </c>
+      <c r="G92" t="s">
+        <v>118</v>
+      </c>
+      <c r="H92" s="0">
+        <v>3</v>
+      </c>
+      <c r="I92" t="s">
+        <v>70</v>
+      </c>
+      <c r="J92" t="s">
+        <v>70</v>
+      </c>
+      <c r="K92" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>27</v>
+      </c>
+      <c r="B93" t="s">
+        <v>48</v>
+      </c>
+      <c r="C93" t="s">
+        <v>51</v>
+      </c>
+      <c r="D93" t="s">
+        <v>48</v>
+      </c>
+      <c r="E93" t="s">
+        <v>63</v>
+      </c>
+      <c r="F93" t="s">
+        <v>98</v>
+      </c>
+      <c r="G93" t="s">
+        <v>119</v>
+      </c>
+      <c r="H93" s="0">
+        <v>4</v>
+      </c>
+      <c r="I93" t="s">
+        <v>70</v>
+      </c>
+      <c r="J93" t="s">
+        <v>70</v>
+      </c>
+      <c r="K93" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" t="s">
+        <v>48</v>
+      </c>
+      <c r="C94" t="s">
+        <v>50</v>
+      </c>
+      <c r="D94" t="s">
+        <v>48</v>
+      </c>
+      <c r="E94" t="s">
+        <v>86</v>
+      </c>
+      <c r="F94" t="s">
+        <v>99</v>
+      </c>
+      <c r="G94" t="s">
+        <v>118</v>
+      </c>
+      <c r="H94" s="0">
+        <v>3</v>
+      </c>
+      <c r="I94" t="s">
+        <v>70</v>
+      </c>
+      <c r="J94" t="s">
+        <v>70</v>
+      </c>
+      <c r="K94" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" t="s">
+        <v>48</v>
+      </c>
+      <c r="C95" t="s">
+        <v>50</v>
+      </c>
+      <c r="D95" t="s">
+        <v>48</v>
+      </c>
+      <c r="E95" t="s">
+        <v>86</v>
+      </c>
+      <c r="F95" t="s">
+        <v>99</v>
+      </c>
+      <c r="G95" t="s">
+        <v>119</v>
+      </c>
+      <c r="H95" s="0">
+        <v>4</v>
+      </c>
+      <c r="I95" t="s">
+        <v>70</v>
+      </c>
+      <c r="J95" t="s">
+        <v>70</v>
+      </c>
+      <c r="K95" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>39</v>
+      </c>
+      <c r="B96" t="s">
+        <v>48</v>
+      </c>
+      <c r="C96" t="s">
+        <v>51</v>
+      </c>
+      <c r="D96" t="s">
+        <v>48</v>
+      </c>
+      <c r="E96" t="s">
+        <v>63</v>
+      </c>
+      <c r="F96" t="s">
+        <v>100</v>
+      </c>
+      <c r="G96" t="s">
+        <v>118</v>
+      </c>
+      <c r="H96" s="0">
+        <v>3</v>
+      </c>
+      <c r="I96" t="s">
+        <v>70</v>
+      </c>
+      <c r="J96" t="s">
+        <v>70</v>
+      </c>
+      <c r="K96" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>39</v>
+      </c>
+      <c r="B97" t="s">
+        <v>48</v>
+      </c>
+      <c r="C97" t="s">
+        <v>51</v>
+      </c>
+      <c r="D97" t="s">
+        <v>48</v>
+      </c>
+      <c r="E97" t="s">
+        <v>63</v>
+      </c>
+      <c r="F97" t="s">
+        <v>100</v>
+      </c>
+      <c r="G97" t="s">
+        <v>118</v>
+      </c>
+      <c r="H97" s="0">
+        <v>4</v>
+      </c>
+      <c r="I97" t="s">
+        <v>70</v>
+      </c>
+      <c r="J97" t="s">
+        <v>70</v>
+      </c>
+      <c r="K97" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>40</v>
+      </c>
+      <c r="B98" t="s">
+        <v>48</v>
+      </c>
+      <c r="C98" t="s">
+        <v>50</v>
+      </c>
+      <c r="D98" t="s">
+        <v>48</v>
+      </c>
+      <c r="E98" t="s">
+        <v>87</v>
+      </c>
+      <c r="F98" t="s">
+        <v>101</v>
+      </c>
+      <c r="G98" t="s">
+        <v>119</v>
+      </c>
+      <c r="H98" s="0">
+        <v>4</v>
+      </c>
+      <c r="I98" t="s">
+        <v>70</v>
+      </c>
+      <c r="J98" t="s">
+        <v>70</v>
+      </c>
+      <c r="K98" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>41</v>
+      </c>
+      <c r="B99" t="s">
+        <v>48</v>
+      </c>
+      <c r="C99" t="s">
+        <v>50</v>
+      </c>
+      <c r="D99" t="s">
+        <v>48</v>
+      </c>
+      <c r="E99" t="s">
+        <v>74</v>
+      </c>
+      <c r="F99" t="s">
+        <v>101</v>
+      </c>
+      <c r="G99" t="s">
+        <v>119</v>
+      </c>
+      <c r="H99" s="0">
+        <v>4</v>
+      </c>
+      <c r="I99" t="s">
+        <v>70</v>
+      </c>
+      <c r="J99" t="s">
+        <v>70</v>
+      </c>
+      <c r="K99" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>41</v>
+      </c>
+      <c r="B100" t="s">
+        <v>48</v>
+      </c>
+      <c r="C100" t="s">
+        <v>50</v>
+      </c>
+      <c r="D100" t="s">
+        <v>48</v>
+      </c>
+      <c r="E100" t="s">
+        <v>74</v>
+      </c>
+      <c r="F100" t="s">
+        <v>101</v>
+      </c>
+      <c r="G100" t="s">
+        <v>118</v>
+      </c>
+      <c r="H100" s="0">
+        <v>3</v>
+      </c>
+      <c r="I100" t="s">
+        <v>70</v>
+      </c>
+      <c r="J100" t="s">
+        <v>70</v>
+      </c>
+      <c r="K100" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>42</v>
+      </c>
+      <c r="B101" t="s">
+        <v>48</v>
+      </c>
+      <c r="C101" t="s">
+        <v>50</v>
+      </c>
+      <c r="D101" t="s">
+        <v>48</v>
+      </c>
+      <c r="E101" t="s">
+        <v>88</v>
+      </c>
+      <c r="F101" t="s">
+        <v>102</v>
+      </c>
+      <c r="G101" t="s">
+        <v>119</v>
+      </c>
+      <c r="H101" s="0">
+        <v>4</v>
+      </c>
+      <c r="I101" t="s">
+        <v>70</v>
+      </c>
+      <c r="J101" t="s">
+        <v>70</v>
+      </c>
+      <c r="K101" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>43</v>
+      </c>
+      <c r="B102" t="s">
+        <v>48</v>
+      </c>
+      <c r="C102" t="s">
+        <v>50</v>
+      </c>
+      <c r="D102" t="s">
+        <v>48</v>
+      </c>
+      <c r="E102" t="s">
+        <v>89</v>
+      </c>
+      <c r="F102" t="s">
+        <v>103</v>
+      </c>
+      <c r="G102" t="s">
+        <v>118</v>
+      </c>
+      <c r="H102" s="0">
+        <v>3</v>
+      </c>
+      <c r="I102" t="s">
+        <v>70</v>
+      </c>
+      <c r="J102" t="s">
+        <v>70</v>
+      </c>
+      <c r="K102" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>43</v>
+      </c>
+      <c r="B103" t="s">
+        <v>48</v>
+      </c>
+      <c r="C103" t="s">
+        <v>50</v>
+      </c>
+      <c r="D103" t="s">
+        <v>48</v>
+      </c>
+      <c r="E103" t="s">
+        <v>89</v>
+      </c>
+      <c r="F103" t="s">
+        <v>104</v>
+      </c>
+      <c r="G103" t="s">
+        <v>119</v>
+      </c>
+      <c r="H103" s="0">
+        <v>4</v>
+      </c>
+      <c r="I103" t="s">
+        <v>70</v>
+      </c>
+      <c r="J103" t="s">
+        <v>70</v>
+      </c>
+      <c r="K103" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>22</v>
+      </c>
+      <c r="B104" t="s">
+        <v>48</v>
+      </c>
+      <c r="C104" t="s">
+        <v>50</v>
+      </c>
+      <c r="D104" t="s">
+        <v>48</v>
+      </c>
+      <c r="E104" t="s">
+        <v>86</v>
+      </c>
+      <c r="F104" t="s">
+        <v>105</v>
+      </c>
+      <c r="G104" t="s">
+        <v>118</v>
+      </c>
+      <c r="H104" s="0">
+        <v>3</v>
+      </c>
+      <c r="I104" t="s">
+        <v>70</v>
+      </c>
+      <c r="J104" t="s">
+        <v>70</v>
+      </c>
+      <c r="K104" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>25</v>
+      </c>
+      <c r="B105" t="s">
+        <v>48</v>
+      </c>
+      <c r="C105" t="s">
+        <v>50</v>
+      </c>
+      <c r="D105" t="s">
+        <v>48</v>
+      </c>
+      <c r="E105" t="s">
+        <v>86</v>
+      </c>
+      <c r="F105" t="s">
+        <v>106</v>
+      </c>
+      <c r="G105" t="s">
+        <v>119</v>
+      </c>
+      <c r="H105" s="0">
+        <v>4</v>
+      </c>
+      <c r="I105" t="s">
+        <v>70</v>
+      </c>
+      <c r="J105" t="s">
+        <v>70</v>
+      </c>
+      <c r="K105" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
         <v>44</v>
       </c>
-      <c r="B90" t="s">
-        <v>47</v>
-      </c>
-      <c r="C90" t="s">
-        <v>50</v>
-      </c>
-      <c r="D90" t="s">
-        <v>47</v>
-      </c>
-      <c r="E90" t="s">
-        <v>62</v>
-      </c>
-      <c r="F90" t="s">
+      <c r="B106" t="s">
+        <v>48</v>
+      </c>
+      <c r="C106" t="s">
+        <v>51</v>
+      </c>
+      <c r="D106" t="s">
+        <v>48</v>
+      </c>
+      <c r="E106" t="s">
+        <v>85</v>
+      </c>
+      <c r="F106" t="s">
+        <v>107</v>
+      </c>
+      <c r="G106" t="s">
+        <v>119</v>
+      </c>
+      <c r="H106" s="0">
+        <v>4</v>
+      </c>
+      <c r="I106" t="s">
+        <v>70</v>
+      </c>
+      <c r="J106" t="s">
+        <v>70</v>
+      </c>
+      <c r="K106" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>45</v>
+      </c>
+      <c r="B107" t="s">
+        <v>48</v>
+      </c>
+      <c r="C107" t="s">
+        <v>51</v>
+      </c>
+      <c r="D107" t="s">
+        <v>48</v>
+      </c>
+      <c r="E107" t="s">
+        <v>63</v>
+      </c>
+      <c r="F107" t="s">
         <v>108</v>
       </c>
-      <c r="G90" t="s">
-        <v>115</v>
-      </c>
-      <c r="H90" s="0">
+      <c r="G107" t="s">
+        <v>119</v>
+      </c>
+      <c r="H107" s="0">
+        <v>4</v>
+      </c>
+      <c r="I107" t="s">
+        <v>70</v>
+      </c>
+      <c r="J107" t="s">
+        <v>70</v>
+      </c>
+      <c r="K107" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>45</v>
+      </c>
+      <c r="B108" t="s">
+        <v>48</v>
+      </c>
+      <c r="C108" t="s">
+        <v>51</v>
+      </c>
+      <c r="D108" t="s">
+        <v>48</v>
+      </c>
+      <c r="E108" t="s">
+        <v>63</v>
+      </c>
+      <c r="F108" t="s">
+        <v>109</v>
+      </c>
+      <c r="G108" t="s">
+        <v>118</v>
+      </c>
+      <c r="H108" s="0">
         <v>3</v>
       </c>
-      <c r="I90" t="s">
-        <v>89</v>
-      </c>
-      <c r="J90" t="s">
-        <v>89</v>
-      </c>
-      <c r="K90" t="s">
-        <v>89</v>
+      <c r="I108" t="s">
+        <v>70</v>
+      </c>
+      <c r="J108" t="s">
+        <v>70</v>
+      </c>
+      <c r="K108" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
